--- a/code/public/assets/excels/creerGroup.xlsx
+++ b/code/public/assets/excels/creerGroup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francoisgraux/GITLAB/SAE/projet-sae-s3/code/public/assets/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\iut\G1S3\SAE\projet-sae-s3\code\public\assets\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F17723-CAB8-2D41-B368-967BFABF47F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83200276-9F33-451C-9A77-EFFBA0882977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="18880" xr2:uid="{D1189E1C-C832-0D44-B26C-D3B8DD5BD73B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D1189E1C-C832-0D44-B26C-D3B8DD5BD73B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,18 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>annee</t>
   </si>
   <si>
     <t>intitule</t>
-  </si>
-  <si>
-    <t>G2S4</t>
-  </si>
-  <si>
-    <t>G3S4</t>
   </si>
 </sst>
 </file>
@@ -103,7 +95,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -399,15 +391,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E786A3-1B6D-7B42-BD01-CEFC4978B9DB}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -415,22 +407,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2023</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
